--- a/results/data/CDW1.1.xlsx
+++ b/results/data/CDW1.1.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+  <si>
+    <t>BUITEN MRA</t>
+  </si>
   <si>
     <t>C INDUSTRIE</t>
   </si>
@@ -34,9 +37,6 @@
     <t xml:space="preserve">K FINANCIËLE ACTIVITEITEN EN VERZEKERINGEN </t>
   </si>
   <si>
-    <t xml:space="preserve">L EXPLOITATIE VAN EN HANDEL IN ONROEREND GOED </t>
-  </si>
-  <si>
     <t xml:space="preserve">M VRIJE BEROEPEN EN WETENSCHAPPELIJKE EN TECHNISCHE ACTIVITEITEN </t>
   </si>
   <si>
@@ -49,10 +49,7 @@
     <t>Other</t>
   </si>
   <si>
-    <t xml:space="preserve">Q MENSELIJKE GEZONDHEIDSZORG EN MAATSCHAPPELIJKE DIENSTVERLENING </t>
-  </si>
-  <si>
-    <t>W UNKNOWN</t>
+    <t xml:space="preserve">S OVERIGE DIENSTEN </t>
   </si>
   <si>
     <t>MeldPeriodeJAAR</t>
@@ -431,15 +428,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -477,272 +474,251 @@
       <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>266923.5030000001</v>
+      </c>
+      <c r="C2">
+        <v>223908.3510000001</v>
+      </c>
+      <c r="D2">
+        <v>1365336.972000001</v>
+      </c>
+      <c r="E2">
+        <v>781067.4460000008</v>
+      </c>
+      <c r="F2">
+        <v>260561.1709999999</v>
+      </c>
+      <c r="G2">
+        <v>197024.0690000001</v>
+      </c>
+      <c r="H2">
+        <v>161916.2220000001</v>
+      </c>
+      <c r="I2">
+        <v>299763.844</v>
+      </c>
+      <c r="J2">
+        <v>63155.91099999997</v>
+      </c>
+      <c r="K2">
+        <v>494402.6060000004</v>
+      </c>
+      <c r="L2">
+        <v>118150.4</v>
+      </c>
+      <c r="M2">
+        <v>198241.3440000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2">
-        <v>228510.8510000001</v>
-      </c>
-      <c r="C2">
-        <v>1258421.458000002</v>
-      </c>
-      <c r="D2">
-        <v>808077.987</v>
-      </c>
-      <c r="E2">
-        <v>275312.4549999996</v>
-      </c>
-      <c r="F2">
-        <v>220866.2770000001</v>
-      </c>
-      <c r="G2">
-        <v>30275.785</v>
-      </c>
-      <c r="H2">
-        <v>90882.60699999995</v>
-      </c>
-      <c r="I2">
-        <v>272661.4940000003</v>
-      </c>
-      <c r="J2">
-        <v>157413.3379999999</v>
-      </c>
-      <c r="K2">
-        <v>483652.7549999994</v>
-      </c>
-      <c r="L2">
-        <v>288814.129</v>
-      </c>
-      <c r="M2">
-        <v>32087.17299999998</v>
-      </c>
-      <c r="N2">
-        <v>195879.5090000001</v>
+      <c r="B3">
+        <v>327210.126</v>
+      </c>
+      <c r="C3">
+        <v>205940.823</v>
+      </c>
+      <c r="D3">
+        <v>1454159.032000001</v>
+      </c>
+      <c r="E3">
+        <v>798314.7660000003</v>
+      </c>
+      <c r="F3">
+        <v>195372.079</v>
+      </c>
+      <c r="G3">
+        <v>238653.843</v>
+      </c>
+      <c r="H3">
+        <v>94090.63200000003</v>
+      </c>
+      <c r="I3">
+        <v>385567.2359999999</v>
+      </c>
+      <c r="J3">
+        <v>72177.07499999991</v>
+      </c>
+      <c r="K3">
+        <v>792209.8639999999</v>
+      </c>
+      <c r="L3">
+        <v>143426.631</v>
+      </c>
+      <c r="M3">
+        <v>106287.495</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:13">
+      <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3">
-        <v>142783.7700000001</v>
-      </c>
-      <c r="C3">
-        <v>1420280.277</v>
-      </c>
-      <c r="D3">
-        <v>742673.8700000012</v>
-      </c>
-      <c r="E3">
-        <v>286723.692</v>
-      </c>
-      <c r="F3">
-        <v>237236.847</v>
-      </c>
-      <c r="G3">
-        <v>21810.59399999999</v>
-      </c>
-      <c r="H3">
-        <v>103633.012</v>
-      </c>
-      <c r="I3">
-        <v>304289.9779999997</v>
-      </c>
-      <c r="J3">
-        <v>185953.7439999999</v>
-      </c>
-      <c r="K3">
-        <v>669857.2449999999</v>
-      </c>
-      <c r="L3">
-        <v>201943.658</v>
-      </c>
-      <c r="M3">
-        <v>65457.00799999995</v>
-      </c>
-      <c r="N3">
-        <v>231395.7980000001</v>
+      <c r="B4">
+        <v>370465.0320000002</v>
+      </c>
+      <c r="C4">
+        <v>201310.3069999999</v>
+      </c>
+      <c r="D4">
+        <v>1267935.127999998</v>
+      </c>
+      <c r="E4">
+        <v>829038.8619999989</v>
+      </c>
+      <c r="F4">
+        <v>228157.3750000001</v>
+      </c>
+      <c r="G4">
+        <v>240142.0550000001</v>
+      </c>
+      <c r="H4">
+        <v>305472.5469999996</v>
+      </c>
+      <c r="I4">
+        <v>473639.6169999999</v>
+      </c>
+      <c r="J4">
+        <v>75169.31200000005</v>
+      </c>
+      <c r="K4">
+        <v>618176.3439999997</v>
+      </c>
+      <c r="L4">
+        <v>133231.578</v>
+      </c>
+      <c r="M4">
+        <v>56157.71</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:13">
+      <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4">
-        <v>128361.964</v>
-      </c>
-      <c r="C4">
-        <v>1367096.286000001</v>
-      </c>
-      <c r="D4">
-        <v>731831.0430000002</v>
-      </c>
-      <c r="E4">
-        <v>180078.3339999998</v>
-      </c>
-      <c r="F4">
-        <v>226609.798</v>
-      </c>
-      <c r="G4">
-        <v>62012.57599999999</v>
-      </c>
-      <c r="H4">
-        <v>114197.782</v>
-      </c>
-      <c r="I4">
-        <v>325311.6049999998</v>
-      </c>
-      <c r="J4">
-        <v>120823.128</v>
-      </c>
-      <c r="K4">
-        <v>649769.8179999989</v>
-      </c>
-      <c r="L4">
-        <v>258474.978</v>
-      </c>
-      <c r="M4">
-        <v>115081.236</v>
-      </c>
-      <c r="N4">
-        <v>289647.1460000002</v>
+      <c r="B5">
+        <v>424742.1610000003</v>
+      </c>
+      <c r="C5">
+        <v>132714.689</v>
+      </c>
+      <c r="D5">
+        <v>1351356.057000003</v>
+      </c>
+      <c r="E5">
+        <v>1014602.372000003</v>
+      </c>
+      <c r="F5">
+        <v>239512.2929999999</v>
+      </c>
+      <c r="G5">
+        <v>326243.3209999999</v>
+      </c>
+      <c r="H5">
+        <v>304496.2529999999</v>
+      </c>
+      <c r="I5">
+        <v>558230.5320000004</v>
+      </c>
+      <c r="J5">
+        <v>117609.4459999999</v>
+      </c>
+      <c r="K5">
+        <v>601367.7680000004</v>
+      </c>
+      <c r="L5">
+        <v>328105.5019999999</v>
+      </c>
+      <c r="M5">
+        <v>60845.82200000001</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:13">
+      <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B5">
-        <v>118853.706</v>
-      </c>
-      <c r="C5">
-        <v>1343037.635999999</v>
-      </c>
-      <c r="D5">
-        <v>872592.0240000024</v>
-      </c>
-      <c r="E5">
-        <v>220590.8730000001</v>
-      </c>
-      <c r="F5">
-        <v>298315.9149999999</v>
-      </c>
-      <c r="G5">
-        <v>184531.609</v>
-      </c>
-      <c r="H5">
-        <v>85156.04299999995</v>
-      </c>
-      <c r="I5">
-        <v>388380.9540000001</v>
-      </c>
-      <c r="J5">
-        <v>171906.0260000002</v>
-      </c>
-      <c r="K5">
-        <v>886802.8020000015</v>
-      </c>
-      <c r="L5">
-        <v>202909.361</v>
-      </c>
-      <c r="M5">
-        <v>100584.9269999999</v>
-      </c>
-      <c r="N5">
-        <v>347174.323</v>
+      <c r="B6">
+        <v>394832.0989999997</v>
+      </c>
+      <c r="C6">
+        <v>134474.6819999999</v>
+      </c>
+      <c r="D6">
+        <v>1143193.687999998</v>
+      </c>
+      <c r="E6">
+        <v>1055358.430000002</v>
+      </c>
+      <c r="F6">
+        <v>274532.9580000002</v>
+      </c>
+      <c r="G6">
+        <v>371861.2770000002</v>
+      </c>
+      <c r="H6">
+        <v>263838.0480000004</v>
+      </c>
+      <c r="I6">
+        <v>460991.6280000002</v>
+      </c>
+      <c r="J6">
+        <v>88011.20299999994</v>
+      </c>
+      <c r="K6">
+        <v>560684.4970000004</v>
+      </c>
+      <c r="L6">
+        <v>283081.605</v>
+      </c>
+      <c r="M6">
+        <v>47507.21699999995</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:13">
+      <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B6">
-        <v>118817.413</v>
-      </c>
-      <c r="C6">
-        <v>1231797.243999999</v>
-      </c>
-      <c r="D6">
-        <v>991862.1910000005</v>
-      </c>
-      <c r="E6">
-        <v>234344.628</v>
-      </c>
-      <c r="F6">
-        <v>379029.6540000001</v>
-      </c>
-      <c r="G6">
-        <v>98920.15399999994</v>
-      </c>
-      <c r="H6">
-        <v>146164.982</v>
-      </c>
-      <c r="I6">
-        <v>304428.8999999999</v>
-      </c>
-      <c r="J6">
-        <v>164676.188</v>
-      </c>
-      <c r="K6">
-        <v>589404.0479999993</v>
-      </c>
-      <c r="L6">
-        <v>222200.957</v>
-      </c>
-      <c r="M6">
-        <v>117197.243</v>
-      </c>
-      <c r="N6">
-        <v>287015.9620000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="B7">
-        <v>114898.03</v>
+        <v>503611.8339999995</v>
       </c>
       <c r="C7">
-        <v>1108570.95</v>
+        <v>116120.2630000001</v>
       </c>
       <c r="D7">
-        <v>842415.6889999994</v>
+        <v>1062350.577</v>
       </c>
       <c r="E7">
-        <v>204116.2019999999</v>
+        <v>856024.5060000001</v>
       </c>
       <c r="F7">
-        <v>303064.113</v>
+        <v>205730.2629999999</v>
       </c>
       <c r="G7">
-        <v>43752.28300000001</v>
+        <v>309036.7209999999</v>
       </c>
       <c r="H7">
-        <v>102049.442</v>
+        <v>342344.2489999999</v>
       </c>
       <c r="I7">
-        <v>310800.376</v>
+        <v>428260.4589999997</v>
       </c>
       <c r="J7">
-        <v>160432.2309999998</v>
+        <v>104911.9050000001</v>
       </c>
       <c r="K7">
-        <v>477799.635000001</v>
+        <v>351321.9480000005</v>
       </c>
       <c r="L7">
-        <v>162719.304</v>
+        <v>219812.3490000001</v>
       </c>
       <c r="M7">
-        <v>105324.721</v>
-      </c>
-      <c r="N7">
-        <v>359528.4739999995</v>
+        <v>34979.03499999998</v>
       </c>
     </row>
   </sheetData>
